--- a/data/trans_bre/VUL_DEP-Clase-trans_bre.xlsx
+++ b/data/trans_bre/VUL_DEP-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>58,31%</t>
+          <t>35,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>36,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>82,66%</t>
+          <t>40,32%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,75</t>
+          <t>-0,74; 1,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,45</t>
+          <t>-1,62; 4,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,95</t>
+          <t>-1,15; 2,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-44,22; 348,33</t>
+          <t>-45,68; 241,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 188,28</t>
+          <t>-34,49; 173,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 331,84</t>
+          <t>-55,61; 331,21</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-30,66%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,89%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>-46,07%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,21</t>
+          <t>-2,04; 2,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 4,39</t>
+          <t>-1,71; 4,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,13</t>
+          <t>-3,47; 0,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-73,97; 100,06</t>
+          <t>-52,94; 164,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 160,14</t>
+          <t>-34,89; 160,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,44; 195,01</t>
+          <t>-84,89; 33,76</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>79,6%</t>
+          <t>164,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>66,0%</t>
+          <t>196,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>170,83%</t>
+          <t>61,8%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 6,53</t>
+          <t>1,32; 7,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 7,96</t>
+          <t>0,99; 14,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 6,05</t>
+          <t>-1,72; 6,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 370,71</t>
+          <t>42,01; 407,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 211,26</t>
+          <t>7,54; 1250,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,28; 425,51</t>
+          <t>-45,46; 353,13</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>165,7%</t>
+          <t>55,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>47,26%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>46,29%</t>
+          <t>164,79%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 5,03</t>
+          <t>-0,15; 3,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 4,46</t>
+          <t>-4,47; 3,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 3,03</t>
+          <t>0,95; 5,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,69; 500,9</t>
+          <t>-8,39; 177,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 106,8</t>
+          <t>-62,39; 74,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 136,32</t>
+          <t>25,68; 529,86</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>247,45%</t>
+          <t>190,9%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>105,43%</t>
+          <t>90,39%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>159,11%</t>
+          <t>214,65%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 6,69</t>
+          <t>1,31; 5,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,17; 8,8</t>
+          <t>-0,87; 9,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,39</t>
+          <t>0,38; 6,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,95; 1208,44</t>
+          <t>27,91; 598,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>38,09; 210,7</t>
+          <t>-6,96; 262,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,14; 404,57</t>
+          <t>-4,18; 1206,57</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>297,16%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>60,53%</t>
+          <t>44,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>266,74%</t>
+          <t>93,05%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 20,25</t>
+          <t>0,19; 4,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 6,32</t>
+          <t>-4,97; 7,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,87</t>
+          <t>-8,88; 28,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-49,18; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-41,48; 254,3</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-21,67; 248,85</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-7,36; 1259,21</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>79,18%</t>
+          <t>85,28%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>69,76%</t>
+          <t>64,97%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>89,57%</t>
+          <t>64,33%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,66</t>
+          <t>1,05; 2,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,45</t>
+          <t>0,73; 4,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,6</t>
+          <t>0,27; 2,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,29; 171,74</t>
+          <t>42,03; 148,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>40,44; 105,69</t>
+          <t>16,01; 145,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,89; 151,89</t>
+          <t>9,42; 152,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/VUL_DEP-Clase-trans_bre.xlsx
+++ b/data/trans_bre/VUL_DEP-Clase-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>76,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,76</t>
+          <t>-0,25; 1,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 4,63</t>
+          <t>-1,57; 4,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-45,68; 241,66</t>
+          <t>-27,0; 329,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-34,49; 173,82</t>
+          <t>-29,13; 196,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,19</t>
+          <t>-1,78; 2,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 4,41</t>
+          <t>-2,04; 4,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,94; 164,99</t>
+          <t>-52,91; 167,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,89; 160,88</t>
+          <t>-35,34; 166,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>164,37%</t>
+          <t>249,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 7,06</t>
+          <t>2,23; 8,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 14,15</t>
+          <t>1,06; 13,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>42,01; 407,23</t>
+          <t>82,55; 540,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,54; 1250,4</t>
+          <t>8,44; 1157,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>55,49%</t>
+          <t>50,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,52</t>
+          <t>-0,27; 3,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 3,78</t>
+          <t>-4,59; 4,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 177,22</t>
+          <t>-8,26; 154,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,39; 74,28</t>
+          <t>-64,31; 80,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>190,9%</t>
+          <t>348,91%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,72</t>
+          <t>2,53; 6,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 9,66</t>
+          <t>-1,08; 9,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,91; 598,68</t>
+          <t>82,71; 970,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 262,04</t>
+          <t>-7,27; 255,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>297,16%</t>
+          <t>194,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 4,79</t>
+          <t>-0,93; 3,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 7,0</t>
+          <t>-4,4; 7,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-49,18; —</t>
+          <t>-51,44; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,48; 254,3</t>
+          <t>-35,3; 304,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>85,28%</t>
+          <t>100,03%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,67</t>
+          <t>1,16; 2,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,9</t>
+          <t>0,74; 5,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>42,03; 148,83</t>
+          <t>50,04; 165,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,01; 145,84</t>
+          <t>16,25; 139,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_bre/VUL_DEP-Clase-trans_bre.xlsx
+++ b/data/trans_bre/VUL_DEP-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,74</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>49,76%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>40,32%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>76,6%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>36,26%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>40,32%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-1,05; 5,33</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 2,34</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-0,25; 1,88</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,57; 4,91</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 2,34</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-22,68; 223,61</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-55,61; 331,21</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-27,0; 329,51</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-29,13; 196,96</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-55,61; 331,21</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,17</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,19</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>22,03%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-46,07%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>6,88%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>30,29%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-46,07%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-2,07; 4,02</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 0,45</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-1,78; 2,02</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,04; 4,4</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,47; 0,45</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-37,3; 151,86</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-84,89; 33,76</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-52,91; 167,72</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-35,34; 166,51</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-84,89; 33,76</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>4,99</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,23</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>37,99%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>61,8%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>249,24%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>196,72%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>61,8%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-2,76; 7,4</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 6,86</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>2,23; 8,12</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 13,14</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,72; 6,86</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-37,13; 156,55</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-45,46; 353,13</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>82,55; 540,92</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>8,44; 1157,19</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-45,46; 353,13</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,66</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>1,46</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>47,04%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>164,79%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>50,92%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,82%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>164,79%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-0,03; 5,47</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 5,55</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-0,27; 3,23</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,59; 4,05</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 5,55</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-2,63; 129,77</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>25,68; 529,86</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-8,26; 154,16</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-64,31; 80,94</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>25,68; 529,86</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>7,99</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,99</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>4,68</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,32</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,99</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>153,39%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>214,65%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>348,91%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>90,39%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>214,65%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>3,84; 11,81</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 6,23</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>2,53; 6,7</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 9,34</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 6,23</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>45,32; 374,54</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-4,18; 1206,57</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>82,71; 970,85</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-7,27; 255,58</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-4,18; 1206,57</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3,92</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>1,96</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,92</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>32,97%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>93,05%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>194,72%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>44,88%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>93,05%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-4,54; 6,71</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-8,88; 28,13</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-0,93; 3,48</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,4; 7,42</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-8,88; 28,13</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-37,54; 245,31</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-51,44; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-35,3; 304,68</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>3,38</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>1,88</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,99</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>65,03%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>64,33%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>100,03%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>64,97%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>64,33%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,9; 4,83</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 2,47</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>1,16; 2,62</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 5,05</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,27; 2,47</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>30,1; 108,59</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9,42; 152,64</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>50,04; 165,41</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>16,25; 139,73</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>9,42; 152,64</t>
         </is>
       </c>
     </row>
